--- a/Sax_Fingering_details.xlsx
+++ b/Sax_Fingering_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3B971E-7F4B-4BD6-BBAF-50129B65F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56A3E9-4982-4F98-8261-44209822D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
   <si>
     <t>C#</t>
   </si>
@@ -5873,13 +5873,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD68562-CFA2-4449-8B4B-3672136A3745}">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:D21"/>
+      <selection pane="bottomRight" activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6424,7 +6424,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>B19+B20*2</f>
         <v>2</v>
@@ -6478,30 +6478,30 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>80</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="R25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -6511,51 +6511,51 @@
       <c r="C26" s="1">
         <v>46</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>50</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
         <v>49</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>48</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>47</v>
-      </c>
-      <c r="I26" s="1">
-        <v>46</v>
       </c>
       <c r="J26" s="1">
         <v>46</v>
       </c>
       <c r="K26" s="1">
+        <v>46</v>
+      </c>
+      <c r="L26" s="1">
         <v>45</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>42</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>41</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>40</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>39</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>38</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>37</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6565,66 +6565,68 @@
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="R27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -6632,8 +6634,9 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -6643,21 +6646,21 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>1</v>
       </c>
       <c r="L29" s="3">
@@ -6681,28 +6684,31 @@
       <c r="R29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
         <v>1</v>
       </c>
       <c r="M30" s="3">
@@ -6723,24 +6729,24 @@
       <c r="R30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
+      <c r="J31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2">
         <v>1</v>
       </c>
@@ -6759,17 +6765,17 @@
       <c r="R31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="G32" s="2">
         <v>1</v>
       </c>
@@ -6788,7 +6794,7 @@
       <c r="L32" s="2">
         <v>1</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <v>1</v>
       </c>
       <c r="N32" s="3">
@@ -6806,30 +6812,33 @@
       <c r="R32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -6837,28 +6846,28 @@
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="3"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -6866,25 +6875,25 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2">
         <v>1</v>
       </c>
-      <c r="O35" s="3">
-        <v>1</v>
-      </c>
-      <c r="P35" s="2">
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
         <v>1</v>
       </c>
       <c r="Q35" s="2">
@@ -6893,32 +6902,32 @@
       <c r="R35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
-        <v>1</v>
-      </c>
-      <c r="P36" s="2">
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
         <v>1</v>
       </c>
       <c r="Q36" s="2">
@@ -6927,28 +6936,28 @@
       <c r="R36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="J37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="3">
-        <v>1</v>
-      </c>
-      <c r="P37" s="2">
+      <c r="O37" s="2"/>
+      <c r="P37" s="3">
         <v>1</v>
       </c>
       <c r="Q37" s="2">
@@ -6957,55 +6966,58 @@
       <c r="R37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="3">
-        <v>1</v>
-      </c>
-      <c r="P38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2">
-        <v>1</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="2"/>
       <c r="R39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -7019,70 +7031,74 @@
       </c>
       <c r="D40" s="1">
         <f>D28*1+D29*2+D30*4+D31*8+D32*16+D33*32+D34*64+D35*128+D36*256+D37*512+D38*1024+D39*2048</f>
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <f>F28*1+F29*2+F30*4+F31*8+F32*16+F33*32+F34*64+F35*128+F36*256+F37*512+F38*1024+F39*2048</f>
+        <v>134</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E28*1+E29*2+E30*4+E31*8+E32*16+E33*32+E34*64+E35*128+E36*256+E37*512+E38*1024+E39*2048</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <f>G28*1+G29*2+G30*4+G31*8+G32*16+G33*32+G34*64+G35*128+G36*256+G37*512+G38*1024+G39*2048</f>
         <v>16</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" ref="G40:Q40" si="2">G28*1+G29*2+G30*4+G31*8+G32*16+G33*32+G34*64+G35*128+G36*256+G37*512+G38*1024+G39*2048</f>
+      <c r="H40" s="1">
+        <f t="shared" ref="H40:K40" si="2">H28*1+H29*2+H30*4+H31*8+H32*16+H33*32+H34*64+H35*128+H36*256+H37*512+H38*1024+H39*2048</f>
         <v>20</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="K40" s="1">
-        <f>K28*1+K29*2+K30*4+K31*8+K32*16+K33*32+K34*64+K35*128+K36*256+K37*512+K38*1024+K39*2048</f>
+      <c r="L40" s="1">
+        <f t="shared" ref="L40:S40" si="3">L28*1+L29*2+L30*4+L31*8+L32*16+L33*32+L34*64+L35*128+L36*256+L37*512+L38*1024+L39*2048</f>
         <v>22</v>
       </c>
-      <c r="L40" s="1">
-        <f>L28*1+L29*2+L30*4+L31*8+L32*16+L33*32+L34*64+L35*128+L36*256+L37*512+L38*1024+L39*2048</f>
+      <c r="M40" s="1">
+        <f t="shared" si="3"/>
         <v>286</v>
       </c>
-      <c r="M40" s="1">
-        <f>M28*1+M29*2+M30*4+M31*8+M32*16+M33*32+M34*64+M35*128+M36*256+M37*512+M38*1024+M39*2048</f>
+      <c r="N40" s="1">
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="N40" s="1">
-        <f>N28*1+N29*2+N30*4+N31*8+N32*16+N33*32+N34*64+N35*128+N36*256+N37*512+N38*1024+N39*2048</f>
+      <c r="O40" s="1">
+        <f t="shared" si="3"/>
         <v>414</v>
       </c>
-      <c r="O40" s="1">
-        <f>O28*1+O29*2+O30*4+O31*8+O32*16+O33*32+O34*64+O35*128+O36*256+O37*512+O38*1024+O39*2048</f>
+      <c r="P40" s="1">
+        <f t="shared" si="3"/>
         <v>1950</v>
       </c>
-      <c r="P40" s="1">
-        <f>P28*1+P29*2+P30*4+P31*8+P32*16+P33*32+P34*64+P35*128+P36*256+P37*512+P38*1024+P39*2048</f>
+      <c r="Q40" s="1">
+        <f t="shared" si="3"/>
         <v>926</v>
       </c>
-      <c r="Q40" s="1">
-        <f>Q28*1+Q29*2+Q30*4+Q31*8+Q32*16+Q33*32+Q34*64+Q35*128+Q36*256+Q37*512+Q38*1024+Q39*2048</f>
+      <c r="R40" s="1">
+        <f t="shared" si="3"/>
         <v>2974</v>
       </c>
-      <c r="R40" s="1">
-        <f>R28*1+R29*2+R30*4+R31*8+R32*16+R33*32+R34*64+R35*128+R36*256+R37*512+R38*1024+R39*2048</f>
+      <c r="S40" s="1">
+        <f t="shared" si="3"/>
         <v>2974</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -7111,7 +7127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -7140,7 +7156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -7188,9 +7204,7 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
+      <c r="H46" s="3"/>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -7198,7 +7212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -7227,7 +7241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -7260,13 +7274,8 @@
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
@@ -7444,14 +7453,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
       <c r="G55" s="2">
         <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
@@ -7468,66 +7474,79 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="L56" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="L57" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="L58" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B59" s="1">
         <f>B44*1+B45*2+B46*4+B47*8+B48*16+B49*32+B50*64+B51*128+B52*256+B53*512+B54*1024+B55*2048+B56*4096</f>
-        <v>4128</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" ref="C57:E57" si="3">C44*1+C45*2+C46*4+C47*8+C48*16+C49*32+C50*64+C51*128+C52*256+C53*512+C54*1024+C55*2048+C56*4096</f>
         <v>4096</v>
       </c>
-      <c r="D57" s="1">
-        <f t="shared" si="3"/>
-        <v>4128</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="3"/>
-        <v>6144</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1">
+      <c r="C59" s="1">
+        <f t="shared" ref="C59:E59" si="4">C44*1+C45*2+C46*4+C47*8+C48*16+C49*32+C50*64+C51*128+C52*256+C53*512+C54*1024+C55*2048+C56*4096</f>
+        <v>32</v>
+      </c>
+      <c r="D59" s="1">
+        <f>D44*1+D45*2+D46*4+D47*8+D48*16+D49*32+D50*64+D51*128+D52*256+D53*512+D54*1024+D55*2048+D56*4096+D57*8192+D58*16384</f>
+        <v>8192</v>
+      </c>
+      <c r="E59" s="1">
+        <f>E44*1+E45*2+E46*4+E47*8+E48*16+E49*32+E50*64+E51*128+E52*256+E53*512+E54*1024+E55*2048+E56*4096+E57*8192+E58*8192*2</f>
+        <v>16384</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1">
         <f>G44*1+G45*2+G46*4+G47*8+G48*16+G49*32+G50*64+G51*128+G52*256+G53*512+G54*1024+G55*2048+G56*4096</f>
-        <v>4160</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" ref="H57" si="4">H44*1+H45*2+H46*4+H47*8+H48*16+H49*32+H50*64+H51*128+H52*256+H53*512+H54*1024+H55*2048+H56*4096</f>
-        <v>4100</v>
-      </c>
-      <c r="I57" s="1">
-        <f t="shared" ref="I57" si="5">I44*1+I45*2+I46*4+I47*8+I48*16+I49*32+I50*64+I51*128+I52*256+I53*512+I54*1024+I55*2048+I56*4096</f>
-        <v>5120</v>
+        <v>64</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" ref="H59" si="5">H44*1+H45*2+H46*4+H47*8+H48*16+H49*32+H50*64+H51*128+H52*256+H53*512+H54*1024+H55*2048+H56*4096</f>
+        <v>2048</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" ref="I59" si="6">I44*1+I45*2+I46*4+I47*8+I48*16+I49*32+I50*64+I51*128+I52*256+I53*512+I54*1024+I55*2048+I56*4096</f>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Q25:R25"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B28:D39 F28:I39 K28:R39 J29 J32">
+  <conditionalFormatting sqref="G28:J39 L28:S39 K29 K32 B28:C39 E28:E39">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7535,7 +7554,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:E56">
+  <conditionalFormatting sqref="B44:E58">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7543,7 +7562,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O14 L45:L56">
+  <conditionalFormatting sqref="B3:O14 L45:L58">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7551,7 +7570,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:I56">
+  <conditionalFormatting sqref="G44:I58">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/Sax_Fingering_details.xlsx
+++ b/Sax_Fingering_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56A3E9-4982-4F98-8261-44209822D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF89A73-932C-446F-B66A-EF2E7B01359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="29355" yWindow="240" windowWidth="26775" windowHeight="16260" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <t>C#</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>16va</t>
+  </si>
+  <si>
+    <t>Learn CC1</t>
+  </si>
+  <si>
+    <t>Learn CC2</t>
+  </si>
+  <si>
+    <t>MIDI</t>
   </si>
 </sst>
 </file>
@@ -1884,6 +1893,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1891,7 +1901,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2822,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00263F9-C8C7-42DF-8462-CEECFF97E7F1}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5876,15 +5885,16 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M58" sqref="M58"/>
+      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7097,6 +7107,9 @@
       <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="K42" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -7123,7 +7136,13 @@
       <c r="I43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L43" t="s">
+      <c r="K43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S43" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7152,7 +7171,13 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="L44">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>14</v>
       </c>
     </row>
@@ -7181,7 +7206,13 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>12</v>
       </c>
     </row>
@@ -7208,7 +7239,13 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="3">
         <v>11</v>
       </c>
     </row>
@@ -7237,7 +7274,13 @@
       <c r="I47" s="2">
         <v>0</v>
       </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
       <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
         <v>10</v>
       </c>
     </row>
@@ -7266,11 +7309,17 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -7290,11 +7339,17 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -7319,11 +7374,17 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
       <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -7348,11 +7409,17 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
-      <c r="L51" s="3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -7377,11 +7444,17 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -7406,11 +7479,17 @@
       <c r="I53" s="2">
         <v>0</v>
       </c>
-      <c r="L53" s="3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -7435,12 +7514,18 @@
       <c r="I54" s="1">
         <v>1</v>
       </c>
-      <c r="L54" s="3">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="S54" s="3">
         <v>20</v>
       </c>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -7462,11 +7547,17 @@
       <c r="I55" s="2">
         <v>0</v>
       </c>
-      <c r="L55" s="3">
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -7479,11 +7570,17 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="L56" s="3">
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
@@ -7493,11 +7590,17 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="L57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -7507,11 +7610,17 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
@@ -7520,7 +7629,7 @@
         <v>4096</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C59:E59" si="4">C44*1+C45*2+C46*4+C47*8+C48*16+C49*32+C50*64+C51*128+C52*256+C53*512+C54*1024+C55*2048+C56*4096</f>
+        <f t="shared" ref="C59" si="4">C44*1+C45*2+C46*4+C47*8+C48*16+C49*32+C50*64+C51*128+C52*256+C53*512+C54*1024+C55*2048+C56*4096</f>
         <v>32</v>
       </c>
       <c r="D59" s="1">
@@ -7541,12 +7650,20 @@
         <v>2048</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" ref="I59" si="6">I44*1+I45*2+I46*4+I47*8+I48*16+I49*32+I50*64+I51*128+I52*256+I53*512+I54*1024+I55*2048+I56*4096</f>
+        <f t="shared" ref="I59:L59" si="6">I44*1+I45*2+I46*4+I47*8+I48*16+I49*32+I50*64+I51*128+I52*256+I53*512+I54*1024+I55*2048+I56*4096</f>
         <v>1024</v>
       </c>
+      <c r="K59" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G28:J39 L28:S39 K29 K32 B28:C39 E28:E39">
+  <conditionalFormatting sqref="B28:C39 E28:E39 G28:J39 L28:S39 K29 K32">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7562,7 +7679,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O14 L45:L58">
+  <conditionalFormatting sqref="B3:O14 S45:S58">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7570,7 +7687,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:I58">
+  <conditionalFormatting sqref="G44:I58 K47:K58 L47:L55 K44:L45">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
